--- a/02Controlled Library/03 Support/01 CM/HD-CM-02_18基线发布报告.xlsx
+++ b/02Controlled Library/03 Support/01 CM/HD-CM-02_18基线发布报告.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="44">
   <si>
     <t>基线发布报告</t>
   </si>
@@ -64,34 +64,52 @@
     <t>A001</t>
   </si>
   <si>
-    <t>软件需求规约</t>
+    <t>Rose模型（用例）</t>
   </si>
   <si>
     <t>Build1.0</t>
   </si>
   <si>
-    <t>需求规格说明书</t>
-  </si>
-  <si>
-    <t>软件实现归约</t>
-  </si>
-  <si>
-    <t>前景文档</t>
-  </si>
-  <si>
-    <t>词汇表</t>
-  </si>
-  <si>
-    <t>测试计划</t>
+    <t>阶段评审报告</t>
+  </si>
+  <si>
+    <t>PPQA检查单</t>
+  </si>
+  <si>
+    <t>PPQA阶段报告</t>
+  </si>
+  <si>
+    <t>基线审计报告</t>
+  </si>
+  <si>
+    <t>需求基线发布报告</t>
+  </si>
+  <si>
+    <t>设计基线</t>
+  </si>
+  <si>
+    <t>B001</t>
+  </si>
+  <si>
+    <t>概念数据模型</t>
+  </si>
+  <si>
+    <t>物理数据模型</t>
+  </si>
+  <si>
+    <t>系统分析设计模型</t>
+  </si>
+  <si>
+    <t>数据库设计说明书</t>
   </si>
   <si>
     <t>系统测试用例</t>
   </si>
   <si>
-    <t>设计基线</t>
-  </si>
-  <si>
-    <t>B001</t>
+    <t>集成测试计划</t>
+  </si>
+  <si>
+    <t>设计基线发布报告</t>
   </si>
   <si>
     <t>开发基线</t>
@@ -137,8 +155,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -206,6 +224,142 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -213,142 +367,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -371,13 +389,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,169 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,24 +690,57 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -699,42 +750,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1002,6 +1020,63 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1021,39 +1096,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1061,21 +1103,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,15 +1121,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1111,10 +1129,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1123,137 +1141,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1306,14 +1324,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1321,49 +1339,31 @@
     <xf numFmtId="14" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,39 +1375,30 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,7 +1444,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,13 +1524,19 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1895,10 +1892,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.78181818181818" defaultRowHeight="14"/>
@@ -1943,7 +1940,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
-      <c r="J2" s="92"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:10">
       <c r="A3" s="7" t="s">
@@ -1969,7 +1966,7 @@
       <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="93">
+      <c r="J3" s="84">
         <v>44004</v>
       </c>
     </row>
@@ -1995,7 +1992,7 @@
       <c r="I4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="94"/>
+      <c r="J4" s="85"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A5" s="15" t="s">
@@ -2016,68 +2013,68 @@
       <c r="H5" s="22">
         <v>44004</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="95"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>44004</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="96"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="89"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="26">
+      <c r="H7" s="23">
         <v>44004</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="96"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="26">
+      <c r="H8" s="23">
         <v>44004</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="96"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="18" t="s">
         <v>21</v>
       </c>
       <c r="E9" s="24"/>
@@ -2085,17 +2082,17 @@
       <c r="G9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="26">
+      <c r="H9" s="23">
         <v>44004</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="96"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="89"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="24"/>
@@ -2103,438 +2100,426 @@
       <c r="G10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="23">
         <v>44004</v>
       </c>
-      <c r="I10" s="23"/>
-      <c r="J10" s="96"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A11" s="17"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="21" t="s">
+      <c r="B11" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="26">
-        <v>44004</v>
-      </c>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98"/>
+      <c r="H11" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I11" s="90"/>
+      <c r="J11" s="92"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A12" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="33"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="99"/>
+      <c r="D12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I12" s="90"/>
+      <c r="J12" s="92"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="99"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I13" s="90"/>
+      <c r="J13" s="92"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A14" s="37"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="99"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I14" s="90"/>
+      <c r="J14" s="92"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="99"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I15" s="90"/>
+      <c r="J15" s="92"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="99"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I16" s="90"/>
+      <c r="J16" s="92"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="99"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="23">
+        <v>44020</v>
+      </c>
+      <c r="I17" s="90"/>
+      <c r="J17" s="92"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="99"/>
+      <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="93"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A19" s="43"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="99"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="93"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A20" s="43"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="99"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="93"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A21" s="43"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="99"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="93"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="40"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="41"/>
       <c r="F22" s="42"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="100"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="93"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A23" s="37"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="100"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="93"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A24" s="37"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="100"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="93"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A25" s="37"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="100"/>
-    </row>
-    <row r="26" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A26" s="37"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="100"/>
-    </row>
-    <row r="27" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A27" s="37"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="100"/>
-    </row>
-    <row r="28" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A28" s="37"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="100"/>
-    </row>
-    <row r="29" s="3" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="102"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="95"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="18" customHeight="1" spans="1:8">
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A27" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="96"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A28" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="97"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A29" s="56"/>
+      <c r="B29" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="60"/>
+      <c r="F29" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J29" s="98" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
+      <c r="A30" s="63">
+        <v>1</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="59"/>
+      <c r="D30" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="99"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A31" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="64"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="103"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A32" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="66" t="s">
+      <c r="A31" s="63">
+        <v>2</v>
+      </c>
+      <c r="B31" s="69"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="71"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="99"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:10">
+      <c r="A32" s="72">
+        <v>3</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="J32" s="104"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A33" s="65"/>
-      <c r="B33" s="66" t="s">
+      <c r="J32" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="H33" s="71"/>
-      <c r="I33" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="105" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A34" s="72">
-        <v>1</v>
-      </c>
-      <c r="B34" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="106"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="18" customHeight="1" spans="1:10">
-      <c r="A35" s="72">
-        <v>2</v>
-      </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="80"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="106"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A36" s="81">
-        <v>3</v>
-      </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="84"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="107" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="15.5" spans="1:8">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="14.75" spans="1:10">
-      <c r="A38" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="109"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:10">
-      <c r="A39" s="89" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="J39" s="110"/>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="1:10">
-      <c r="A40" s="89"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="J40" s="110"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="14.75" spans="1:10">
-      <c r="A41" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="111"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15.5" spans="1:8">
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="14.75" spans="1:10">
+      <c r="A34" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="102"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:10">
+      <c r="A35" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="J35" s="103"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:10">
+      <c r="A36" s="80"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="J36" s="103"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="14.75" spans="1:10">
+      <c r="A37" s="81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="82"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="82"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="82"/>
+      <c r="J37" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="B3:C3"/>
@@ -2542,6 +2527,13 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="I4:J4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="D12:F12"/>
@@ -2549,53 +2541,47 @@
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="D14:F14"/>
-    <mergeCell ref="I14:J14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="D19:F19"/>
+    <mergeCell ref="I19:J19"/>
     <mergeCell ref="D20:F20"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="D21:F21"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="D22:F22"/>
-    <mergeCell ref="I22:J22"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="I23:J23"/>
     <mergeCell ref="D24:F24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="A12:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B5:C11"/>
-    <mergeCell ref="B12:C21"/>
-    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A11:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B5:C10"/>
+    <mergeCell ref="B11:C17"/>
+    <mergeCell ref="B18:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
